--- a/1 Hardware/MCP33151 Eval Board Bringup/Power Rails/Board Bringup Measurements.xlsx
+++ b/1 Hardware/MCP33151 Eval Board Bringup/Power Rails/Board Bringup Measurements.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Desktop\ecse478_honours_thesis\1 Hardware\MCP33151 Eval Board Bringup\Power Rails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F692B47-9A36-4F78-9712-BD5729CC1315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B100DE09-F2BD-490B-8C4B-A9D9617B106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{7F6D996F-7E04-4D92-871E-4D697BCB5885}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{7F6D996F-7E04-4D92-871E-4D697BCB5885}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Power rails" sheetId="1" r:id="rId1"/>
+    <sheet name="LS SE Gains" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Measurements</t>
   </si>
@@ -120,14 +121,54 @@
   </si>
   <si>
     <t>board powered by phone charger brick</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Input measured by multimeter in mV mode</t>
+  </si>
+  <si>
+    <t>Output measured by multimeter in mV or V mode</t>
+  </si>
+  <si>
+    <t>Hardware Output (V)</t>
+  </si>
+  <si>
+    <t>ADC averaged reading (V)</t>
+  </si>
+  <si>
+    <t>Hardware Gain (V/V)</t>
+  </si>
+  <si>
+    <t>Perceived Gain (V/V)</t>
+  </si>
+  <si>
+    <t>Output of ADC printed to serial terminal as well, averaged over 1000 samples measured at 50 Hz</t>
+  </si>
+  <si>
+    <t>Input (mV)</t>
+  </si>
+  <si>
+    <t>measured with FLIR</t>
+  </si>
+  <si>
+    <t>measured with OWON B35T+</t>
+  </si>
+  <si>
+    <t>clipped with J hooks</t>
+  </si>
+  <si>
+    <t>through alligator cables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -146,12 +187,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,12 +213,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33445D28-1794-4B05-844D-C41C46B39434}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,4 +766,148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14A28D4-CBC6-46E5-BF8A-151B6CCFCF91}">
+  <dimension ref="A2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>38.15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.9469999999999998E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.9640000000000002E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <f>B3/A3*1000</f>
+        <v>1.0346002621231978</v>
+      </c>
+      <c r="E3" s="6">
+        <f>C3/A3*1000</f>
+        <v>1.039056356487549</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>38.15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.38653999999999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.38629000000000002</v>
+      </c>
+      <c r="D4" s="6">
+        <f>B4/A4*1000</f>
+        <v>10.132110091743121</v>
+      </c>
+      <c r="E4" s="6">
+        <f>C4/A4*1000</f>
+        <v>10.125557011795545</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>38.15</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.903</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.8995899999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <f>B5/A5*1000</f>
+        <v>49.882044560943648</v>
+      </c>
+      <c r="E5" s="6">
+        <f>C5/A5*1000</f>
+        <v>49.792660550458713</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>38.15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3.8672</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.85968</v>
+      </c>
+      <c r="D6" s="6">
+        <f>B6/A6*1000</f>
+        <v>101.36828309305373</v>
+      </c>
+      <c r="E6" s="6">
+        <f>C6/A6*1000</f>
+        <v>101.17116644823066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/1 Hardware/MCP33151 Eval Board Bringup/Power Rails/Board Bringup Measurements.xlsx
+++ b/1 Hardware/MCP33151 Eval Board Bringup/Power Rails/Board Bringup Measurements.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Desktop\ecse478_honours_thesis\1 Hardware\MCP33151 Eval Board Bringup\Power Rails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B100DE09-F2BD-490B-8C4B-A9D9617B106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713A302E-E2D8-4874-A303-7DBF385B0375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{7F6D996F-7E04-4D92-871E-4D697BCB5885}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="10044" firstSheet="1" activeTab="1" xr2:uid="{7F6D996F-7E04-4D92-871E-4D697BCB5885}"/>
   </bookViews>
   <sheets>
     <sheet name="Power rails" sheetId="1" r:id="rId1"/>
     <sheet name="LS SE Gains" sheetId="2" r:id="rId2"/>
+    <sheet name="LS SE Input Pulldown" sheetId="4" r:id="rId3"/>
+    <sheet name="AA filter input bias offset" sheetId="5" r:id="rId4"/>
+    <sheet name="AA filter offset vs freq" sheetId="6" r:id="rId5"/>
+    <sheet name="HS DE Stuff" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +40,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jasper Yun</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{A26701DA-EE54-4DFE-B888-CB478DBF5216}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jasper Yun:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Measured output of op amp before ADC
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
   <si>
     <t>Measurements</t>
   </si>
@@ -160,17 +199,234 @@
   </si>
   <si>
     <t>through alligator cables</t>
+  </si>
+  <si>
+    <t>replaced RC before ADC with 100R and 47nF</t>
+  </si>
+  <si>
+    <t>1 Meg pull-down</t>
+  </si>
+  <si>
+    <t>Connector voltage</t>
+  </si>
+  <si>
+    <t>Mux output</t>
+  </si>
+  <si>
+    <t>Op-amp non-inv input</t>
+  </si>
+  <si>
+    <t>10K pull-down</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>ADC input</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>V/V</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>not measured</t>
+  </si>
+  <si>
+    <t>Cause: most likely due to op-amp input bias current</t>
+  </si>
+  <si>
+    <t>RC4580 input bias current</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>nA</t>
+  </si>
+  <si>
+    <t>2 x mux on-state resistance</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>Non-inv input compensation resistor</t>
+  </si>
+  <si>
+    <t>Voltage at non-inv input due to bias current</t>
+  </si>
+  <si>
+    <t>Pull-down resistance on input</t>
+  </si>
+  <si>
+    <t>First stage</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>kOhm</t>
+  </si>
+  <si>
+    <t>Non-inv input voltage</t>
+  </si>
+  <si>
+    <t>Output voltage</t>
+  </si>
+  <si>
+    <t>Anti-aliasing filter input voltage from in-amp</t>
+  </si>
+  <si>
+    <t>Second stage</t>
+  </si>
+  <si>
+    <t>Third stage</t>
+  </si>
+  <si>
+    <t>Second stage input voltage</t>
+  </si>
+  <si>
+    <t>Third stage input voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-aliasing filter output voltage </t>
+  </si>
+  <si>
+    <t>Final output voltage</t>
+  </si>
+  <si>
+    <t>Gain stage</t>
+  </si>
+  <si>
+    <t>Test setup</t>
+  </si>
+  <si>
+    <t>Multimeter measures voltages (probed sequentially)</t>
+  </si>
+  <si>
+    <t>SPD3303X-E DC power supply provides 3.20V to shorted differential inputs</t>
+  </si>
+  <si>
+    <t>Measurements (tested at DC)</t>
+  </si>
+  <si>
+    <t>Gain stage on HS DE inputs was set to unity gain</t>
+  </si>
+  <si>
+    <t>Offset voltage due to bias current in this stage</t>
+  </si>
+  <si>
+    <t>Output voltage (voltage follower)</t>
+  </si>
+  <si>
+    <t>Keeping AA filter as designed in schematic, no compensation resistors in feedback path</t>
+  </si>
+  <si>
+    <t>In+ is a sinusoid from signal generator</t>
+  </si>
+  <si>
+    <t>In-(DC) (V)</t>
+  </si>
+  <si>
+    <t>In+ offset (V)</t>
+  </si>
+  <si>
+    <t>In+ Freq (Hz)</t>
+  </si>
+  <si>
+    <t>Output freq (Hz)</t>
+  </si>
+  <si>
+    <t>Hardware output sinusoid</t>
+  </si>
+  <si>
+    <t>Input+ sinusoid (1Vpp)</t>
+  </si>
+  <si>
+    <t>In+ mean (oscope) (V)</t>
+  </si>
+  <si>
+    <t>Output mean (V)</t>
+  </si>
+  <si>
+    <t>noticeable phase shift occurring</t>
+  </si>
+  <si>
+    <t>Output Vpp (V)</t>
+  </si>
+  <si>
+    <t>Input Vpp (V)</t>
+  </si>
+  <si>
+    <t>Output / Input (V/V)</t>
+  </si>
+  <si>
+    <t>Output / Input (dB)</t>
+  </si>
+  <si>
+    <t>looked like a flat line…oscilloscope doesn't go smaller than 5mV/div</t>
+  </si>
+  <si>
+    <t>set to averaging 128 samples on acquisition at this point</t>
+  </si>
+  <si>
+    <t>according to Roberts, the above is not gain -- gain requires two points to determine slope + offset, where slope is the gain.</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>10x</t>
+  </si>
+  <si>
+    <t>50x</t>
+  </si>
+  <si>
+    <t>100x</t>
+  </si>
+  <si>
+    <t>Offset (mV)</t>
+  </si>
+  <si>
+    <t>Gain (V/V)</t>
+  </si>
+  <si>
+    <t>redoing the test now with dc inputs. We don't have a good signal generator that can produce small voltages needed for testing the 100x gain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +442,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +469,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -209,11 +484,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,10 +534,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -243,6 +568,2119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AA filter offset vs freq'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output / Input (V/V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AA filter offset vs freq'!$C$6:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AA filter offset vs freq'!$I$6:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.0588235294117647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0588235294117647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0588235294117647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0784313725490198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0784313725490198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0188679245283019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0188679245283019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96226415094339623</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94339622641509424</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90566037735849048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83018867924528295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79245283018867918</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79245283018867918</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.64150943396226412</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29629629629629628</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3703703703703693E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5555555555555553E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4074074074074072E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1111111111111109E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A299-40F6-AAAE-D3685CEE1092}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="498760735"/>
+        <c:axId val="498789855"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="498760735"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="200000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498789855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="498789855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498760735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AA filter offset vs freq'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output / Input (dB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AA filter offset vs freq'!$C$6:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AA filter offset vs freq'!$J$6:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.49647167450064289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49647167450064289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49647167450064289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65585026792615086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65585026792615086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16235780444358919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16235780444358919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.33411387005705351</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.50611730529540577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.86069264450403737</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.6164638622920329</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.0205315840577724</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.0205315840577724</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.8559390511706786</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-10.565475543340874</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-23.916706345028768</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-36.162289475221733</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-52.369008150322635</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-59.084850188786497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFD5-48DB-83CE-1DBE38EFB969}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="159340831"/>
+        <c:axId val="159359135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="159340831"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="200000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159359135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="159359135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="159340831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82697</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67568</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7445F577-E0FD-5440-C9BD-EF76E26DD236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5204046" y="1334069"/>
+          <a:ext cx="2418545" cy="3723713"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677CAB0E-939C-F76C-DEC8-DC3E63DF9BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676835</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>497541</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103093</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C399B542-D2F5-89EC-1154-E97F5925B7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,10 +3208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14A28D4-CBC6-46E5-BF8A-151B6CCFCF91}">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,6 +3344,2123 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.5590000000000002E-2</v>
+      </c>
+      <c r="D15" s="6">
+        <f>B15/A15*1000</f>
+        <v>1.0442804428044279</v>
+      </c>
+      <c r="E15" s="6">
+        <f>C15/A15*1000</f>
+        <v>0.94428044280442802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.27460000000000001</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.26571</v>
+      </c>
+      <c r="D16" s="6">
+        <f>B16/A16*1000</f>
+        <v>10.132841328413285</v>
+      </c>
+      <c r="E16" s="6">
+        <f>C16/A16*1000</f>
+        <v>9.804797047970478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.3509</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.33066</v>
+      </c>
+      <c r="D17" s="6">
+        <f>B17/A17*1000</f>
+        <v>49.84870848708487</v>
+      </c>
+      <c r="E17" s="6">
+        <f>C17/A17*1000</f>
+        <v>49.101845018450177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2.7422</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.70696</v>
+      </c>
+      <c r="D18" s="6">
+        <f>B18/A18*1000</f>
+        <v>101.18819188191881</v>
+      </c>
+      <c r="E18" s="6">
+        <f>C18/A18*1000</f>
+        <v>99.887822878228789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3.85E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3.5036999999999999E-2</v>
+      </c>
+      <c r="D20" s="6">
+        <f>B20/A20*1000</f>
+        <v>1.0349462365591395</v>
+      </c>
+      <c r="E20" s="6">
+        <f>C20/A20*1000</f>
+        <v>0.94185483870967734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.37025000000000002</v>
+      </c>
+      <c r="D21" s="6">
+        <f>B21/A21*1000</f>
+        <v>10.137096774193548</v>
+      </c>
+      <c r="E21" s="6">
+        <f>C21/A21*1000</f>
+        <v>9.952956989247312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1.8554999999999999</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.851</v>
+      </c>
+      <c r="D22" s="6">
+        <f>B22/A22*1000</f>
+        <v>49.879032258064512</v>
+      </c>
+      <c r="E22" s="6">
+        <f>C22/A22*1000</f>
+        <v>49.758064516129025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3.7707999999999999</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3.7693400000000001</v>
+      </c>
+      <c r="D23" s="6">
+        <f>B23/A23*1000</f>
+        <v>101.36559139784946</v>
+      </c>
+      <c r="E23" s="6">
+        <f>C23/A23*1000</f>
+        <v>101.32634408602151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26">
+        <f>(B20-B15)/(A20-A15)*1000</f>
+        <v>1.0099009900990099</v>
+      </c>
+      <c r="C26">
+        <f>(B15-B26*A15/1000)*1000</f>
+        <v>0.93168316831682829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B29" si="0">(B21-B16)/(A21-A16)*1000</f>
+        <v>10.148514851485146</v>
+      </c>
+      <c r="C27">
+        <f>(B16-B27*A16/1000)*1000</f>
+        <v>-0.42475247524742521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>49.96039603960395</v>
+      </c>
+      <c r="C28">
+        <f>(B17-B28*A17/1000)*1000</f>
+        <v>-3.0267326732669186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>101.84158415841583</v>
+      </c>
+      <c r="C29">
+        <f>(B18-B29*A18/1000)*1000</f>
+        <v>-17.706930693069278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24A3597-F22F-491D-91B0-A797DF7E6B00}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>0.191</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>0.191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>1.994</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>1.994</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>2.9049999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>3.032</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <f>B11/B10</f>
+        <v>1.0437177280550776</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>500</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <f>2*40</f>
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <f>2*50</f>
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <f>2*125</f>
+        <v>250</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <f>(1-0.1%)*C19</f>
+        <v>4525.47</v>
+      </c>
+      <c r="C19">
+        <v>4530</v>
+      </c>
+      <c r="D19">
+        <f>(1+0.1%)*C19</f>
+        <v>4534.53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <f>(1-1%)*C20</f>
+        <v>990000</v>
+      </c>
+      <c r="C20">
+        <v>1000000</v>
+      </c>
+      <c r="D20">
+        <f>(1+1%)*C20</f>
+        <v>1010000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="8">
+        <f>(B20+B19+B18)*B17/1000000</f>
+        <v>9.9460546999999995</v>
+      </c>
+      <c r="C21" s="9">
+        <f>(C20+C19+C18)*C17/1000000</f>
+        <v>100.46299999999999</v>
+      </c>
+      <c r="D21" s="9">
+        <f>(D20+D19+D18)*D17/1000000</f>
+        <v>507.39226500000001</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <f>2*40</f>
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <f>2*50</f>
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <f>2*125</f>
+        <v>250</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25">
+        <f>(1-0.1%)*C25</f>
+        <v>4525.47</v>
+      </c>
+      <c r="C25">
+        <v>4530</v>
+      </c>
+      <c r="D25">
+        <f>(1+0.1%)*C25</f>
+        <v>4534.53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <f>(1-1%)*C26</f>
+        <v>9900</v>
+      </c>
+      <c r="C26">
+        <v>10000</v>
+      </c>
+      <c r="D26">
+        <f>(1+1%)*C26</f>
+        <v>10100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="8">
+        <f>(B26+B25+B24)*B23/1000000</f>
+        <v>0.14505470000000001</v>
+      </c>
+      <c r="C27" s="9">
+        <f>(C26+C25+C24)*C23/1000000</f>
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="D27" s="9">
+        <f>(D26+D25+D24)*D23/1000000</f>
+        <v>7.442264999999999</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507666E9-2125-403F-A1F7-D59C50427D35}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="J2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="H3" s="13"/>
+      <c r="J3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>200</v>
+      </c>
+      <c r="E5" s="3">
+        <v>500</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5">
+        <v>13.026</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="3">
+        <f>(1-B6)*D6</f>
+        <v>1.68831</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="E6" s="3">
+        <f>(1+B6)*D6</f>
+        <v>1.6916899999999997</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6">
+        <v>13.686</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <f>(1-B7)*D7</f>
+        <v>63.336599999999997</v>
+      </c>
+      <c r="D7" s="3">
+        <v>63.4</v>
+      </c>
+      <c r="E7" s="3">
+        <f>(1+B7)*D7</f>
+        <v>63.463399999999993</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="3">
+        <f>K6/K5</f>
+        <v>1.0506678949792723</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="3">
+        <f>(C7+C6)*C5/1000</f>
+        <v>0.65024909999999991</v>
+      </c>
+      <c r="D8" s="3">
+        <f>(D7+D6)*D5/1000</f>
+        <v>13.018000000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <f>(E7+E6)*E5/1000</f>
+        <v>32.577544999999994</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C8+C4</f>
+        <v>0.65024909999999991</v>
+      </c>
+      <c r="D9" s="3">
+        <f>D8+D4</f>
+        <v>13.018000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <f>E8+E4</f>
+        <v>32.577544999999994</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="J9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C9</f>
+        <v>0.65024909999999991</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D9</f>
+        <v>13.018000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <f>E9</f>
+        <v>32.577544999999994</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10">
+        <v>23.001000000000001</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="H11" s="13"/>
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11">
+        <v>24.338000000000001</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="H12" s="13"/>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="3">
+        <f>K11/K10</f>
+        <v>1.0581279074822834</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C10</f>
+        <v>0.65024909999999991</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D10</f>
+        <v>13.018000000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <f>E10</f>
+        <v>32.577544999999994</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3">
+        <f>C5</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <f>D5</f>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <f>E5</f>
+        <v>500</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="J14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="3">
+        <f>(1-B15)*D15</f>
+        <v>1.95804</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="E15" s="3">
+        <f>(1+B15)*D15</f>
+        <v>1.9619599999999997</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15">
+        <v>29.268999999999998</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C16" s="3">
+        <f>(1-B16)*D16</f>
+        <v>48.651300000000006</v>
+      </c>
+      <c r="D16" s="3">
+        <v>48.7</v>
+      </c>
+      <c r="E16" s="3">
+        <f>(1+B16)*D16</f>
+        <v>48.748699999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="J16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16">
+        <v>29.843</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3">
+        <f>(C16+C15)*C14/1000</f>
+        <v>0.50609340000000003</v>
+      </c>
+      <c r="D17" s="3">
+        <f>(D16+D15)*D14/1000</f>
+        <v>10.132</v>
+      </c>
+      <c r="E17" s="3">
+        <f>(E16+E15)*E14/1000</f>
+        <v>25.355329999999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="3">
+        <f>K16/K15</f>
+        <v>1.0196111927295091</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C17+C13</f>
+        <v>1.1563425000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <f>D17+D13</f>
+        <v>23.15</v>
+      </c>
+      <c r="E18" s="3">
+        <f>E17+E13</f>
+        <v>57.932874999999996</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3">
+        <f>C18</f>
+        <v>1.1563425000000001</v>
+      </c>
+      <c r="D19" s="3">
+        <f>D18</f>
+        <v>23.15</v>
+      </c>
+      <c r="E19" s="3">
+        <f>E18</f>
+        <v>57.932874999999996</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="J19" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="H20" s="13"/>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20">
+        <v>30.64</v>
+      </c>
+      <c r="L20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="H21" s="13"/>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21">
+        <v>31.042000000000002</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3">
+        <f>C19</f>
+        <v>1.1563425000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <f>D19</f>
+        <v>23.15</v>
+      </c>
+      <c r="E22" s="3">
+        <f>E19</f>
+        <v>57.932874999999996</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="3">
+        <f>K21/K20</f>
+        <v>1.0131201044386424</v>
+      </c>
+      <c r="L22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="3">
+        <f>C5</f>
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <f>D5</f>
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <f>E5</f>
+        <v>500</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C24" s="3">
+        <f>(1-B24)*D24</f>
+        <v>3.1568400000000003</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3.16</v>
+      </c>
+      <c r="E24" s="3">
+        <f>(1+B24)*D24</f>
+        <v>3.16316</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="J24" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="C25" s="3">
+        <f>(1-B25)*D25</f>
+        <v>24.275700000000001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>24.3</v>
+      </c>
+      <c r="E25" s="3">
+        <f>(1+B25)*D25</f>
+        <v>24.324299999999997</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="J25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="3">
+        <f>(C25+C24)*C23/1000</f>
+        <v>0.2743254</v>
+      </c>
+      <c r="D26" s="3">
+        <f>(D25+D24)*D23/1000</f>
+        <v>5.492</v>
+      </c>
+      <c r="E26" s="3">
+        <f>(E25+E24)*E23/1000</f>
+        <v>13.743729999999999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3">
+        <f>C26+C22</f>
+        <v>1.4306679</v>
+      </c>
+      <c r="D27" s="3">
+        <f>D26+D22</f>
+        <v>28.641999999999999</v>
+      </c>
+      <c r="E27" s="3">
+        <f>E26+E22</f>
+        <v>71.676604999999995</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="3">
+        <f>C27</f>
+        <v>1.4306679</v>
+      </c>
+      <c r="D28" s="3">
+        <f>D27</f>
+        <v>28.641999999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <f>E27</f>
+        <v>71.676604999999995</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="15">
+        <f>C28</f>
+        <v>1.4306679</v>
+      </c>
+      <c r="D30" s="16">
+        <f>D28</f>
+        <v>28.641999999999999</v>
+      </c>
+      <c r="E30" s="16">
+        <f>E28</f>
+        <v>71.676604999999995</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H32" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B34CD3F-A7E3-43E4-A82F-302D6CA4F9B0}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>1.4988999999999999</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1.99</v>
+      </c>
+      <c r="E6">
+        <v>1.02</v>
+      </c>
+      <c r="F6">
+        <v>0.52893000000000001</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1.08</v>
+      </c>
+      <c r="I6">
+        <f>H6/E6</f>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="J6">
+        <f>20*LOG10(I6)</f>
+        <v>0.49647167450064289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E7">
+        <v>1.02</v>
+      </c>
+      <c r="F7">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>1.08</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I26" si="0">H7/E7</f>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J26" si="1">20*LOG10(I7)</f>
+        <v>0.49647167450064289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1.02</v>
+      </c>
+      <c r="F8">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>1.08</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.49647167450064289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1.02</v>
+      </c>
+      <c r="F9">
+        <v>0.52929000000000004</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.0784313725490198</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.65585026792615086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E10">
+        <v>1.02</v>
+      </c>
+      <c r="F10">
+        <v>0.53395000000000004</v>
+      </c>
+      <c r="G10">
+        <v>199.98</v>
+      </c>
+      <c r="H10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1.0784313725490198</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.65585026792615086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1.06</v>
+      </c>
+      <c r="F11">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="G11">
+        <v>499.99</v>
+      </c>
+      <c r="H11">
+        <v>1.08</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.0188679245283019</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.16235780444358919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E12">
+        <v>1.06</v>
+      </c>
+      <c r="F12">
+        <v>0.53254999999999997</v>
+      </c>
+      <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
+        <v>1.08</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1.0188679245283019</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.16235780444358919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E13">
+        <v>1.06</v>
+      </c>
+      <c r="F13">
+        <v>0.5323</v>
+      </c>
+      <c r="G13">
+        <v>2000</v>
+      </c>
+      <c r="H13">
+        <v>1.06</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E14">
+        <v>1.06</v>
+      </c>
+      <c r="F14">
+        <v>0.5323</v>
+      </c>
+      <c r="G14">
+        <v>5000</v>
+      </c>
+      <c r="H14">
+        <v>1.06</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>10000</v>
+      </c>
+      <c r="D15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E15">
+        <v>1.06</v>
+      </c>
+      <c r="F15">
+        <v>0.53202000000000005</v>
+      </c>
+      <c r="G15">
+        <v>10000</v>
+      </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-0.33411387005705351</v>
+      </c>
+      <c r="M15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>12000</v>
+      </c>
+      <c r="D16">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E16">
+        <v>1.06</v>
+      </c>
+      <c r="F16">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="G16">
+        <v>12000</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.94339622641509424</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>-0.50611730529540577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>15000</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1.06</v>
+      </c>
+      <c r="F17">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="G17">
+        <v>15000</v>
+      </c>
+      <c r="H17">
+        <v>0.96</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.90566037735849048</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>-0.86069264450403737</v>
+      </c>
+      <c r="M17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>20000</v>
+      </c>
+      <c r="D18">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E18">
+        <v>1.06</v>
+      </c>
+      <c r="F18">
+        <v>0.53134999999999999</v>
+      </c>
+      <c r="G18">
+        <v>20000</v>
+      </c>
+      <c r="H18">
+        <v>0.88</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.83018867924528295</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>-1.6164638622920329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>22000</v>
+      </c>
+      <c r="D19">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E19">
+        <v>1.06</v>
+      </c>
+      <c r="F19">
+        <v>0.53805999999999998</v>
+      </c>
+      <c r="G19">
+        <v>22000</v>
+      </c>
+      <c r="H19">
+        <v>0.84</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0.79245283018867918</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>-2.0205315840577724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>25000</v>
+      </c>
+      <c r="D20">
+        <v>1.99</v>
+      </c>
+      <c r="E20">
+        <v>1.06</v>
+      </c>
+      <c r="F20">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="G20">
+        <v>25000</v>
+      </c>
+      <c r="H20">
+        <v>0.84</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.79245283018867918</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>-2.0205315840577724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>30000</v>
+      </c>
+      <c r="D21">
+        <v>1.98</v>
+      </c>
+      <c r="E21">
+        <v>1.06</v>
+      </c>
+      <c r="F21">
+        <v>0.51344999999999996</v>
+      </c>
+      <c r="G21">
+        <v>30000</v>
+      </c>
+      <c r="H21">
+        <v>0.68</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0.64150943396226412</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>-3.8559390511706786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>50000</v>
+      </c>
+      <c r="D22">
+        <v>1.99</v>
+      </c>
+      <c r="E22">
+        <v>1.08</v>
+      </c>
+      <c r="F22">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="G22">
+        <v>50000</v>
+      </c>
+      <c r="H22">
+        <v>0.32</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>-10.565475543340874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>75000</v>
+      </c>
+      <c r="D23">
+        <v>1.98</v>
+      </c>
+      <c r="E23">
+        <v>1.08</v>
+      </c>
+      <c r="F23">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="G23">
+        <v>75000</v>
+      </c>
+      <c r="H23">
+        <v>6.88E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>6.3703703703703693E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>-23.916706345028768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>100000</v>
+      </c>
+      <c r="D24">
+        <v>1.98</v>
+      </c>
+      <c r="E24">
+        <v>1.08</v>
+      </c>
+      <c r="F24">
+        <v>0.53081999999999996</v>
+      </c>
+      <c r="G24">
+        <v>100000</v>
+      </c>
+      <c r="H24">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1.5555555555555553E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>-36.162289475221733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>150000</v>
+      </c>
+      <c r="D25">
+        <v>1.98</v>
+      </c>
+      <c r="E25">
+        <v>1.08</v>
+      </c>
+      <c r="H25">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>2.4074074074074072E-3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>-52.369008150322635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>1.4991000000000001</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>200000</v>
+      </c>
+      <c r="D26">
+        <v>1.98</v>
+      </c>
+      <c r="E26">
+        <v>1.08</v>
+      </c>
+      <c r="H26">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111109E-3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>-59.084850188786497</v>
+      </c>
+      <c r="M26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF3D532-2378-4AD8-A17E-2E47D1602F97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/1 Hardware/MCP33151 Eval Board Bringup/Power Rails/Board Bringup Measurements.xlsx
+++ b/1 Hardware/MCP33151 Eval Board Bringup/Power Rails/Board Bringup Measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Desktop\ecse478_honours_thesis\1 Hardware\MCP33151 Eval Board Bringup\Power Rails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713A302E-E2D8-4874-A303-7DBF385B0375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A7A1C5-3FE2-4088-B029-F5B0B69A9D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="10044" firstSheet="1" activeTab="1" xr2:uid="{7F6D996F-7E04-4D92-871E-4D697BCB5885}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{7F6D996F-7E04-4D92-871E-4D697BCB5885}"/>
   </bookViews>
   <sheets>
     <sheet name="Power rails" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
   <si>
     <t>Measurements</t>
   </si>
@@ -415,6 +415,39 @@
   </si>
   <si>
     <t>redoing the test now with dc inputs. We don't have a good signal generator that can produce small voltages needed for testing the 100x gain</t>
+  </si>
+  <si>
+    <t>Before adding compensation resistors</t>
+  </si>
+  <si>
+    <t>Add 63k4</t>
+  </si>
+  <si>
+    <t>Vout-1v/v</t>
+  </si>
+  <si>
+    <t>Vout-10v/v</t>
+  </si>
+  <si>
+    <t>Vout-50v/v</t>
+  </si>
+  <si>
+    <t>Vout-100v/v</t>
+  </si>
+  <si>
+    <t>Add 48k7</t>
+  </si>
+  <si>
+    <t>Add 24k3</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>ADC reading</t>
+  </si>
+  <si>
+    <t>units</t>
   </si>
 </sst>
 </file>
@@ -3210,7 +3243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14A28D4-CBC6-46E5-BF8A-151B6CCFCF91}">
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -3934,10 +3967,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507666E9-2125-403F-A1F7-D59C50427D35}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4641,6 +4674,184 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H32" s="13"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36">
+        <v>0.03</v>
+      </c>
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37">
+        <v>0.3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38">
+        <v>1.49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39">
+        <v>3.03</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42">
+        <v>1.7389999999999999E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43">
+        <v>0.16353999999999999</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44">
+        <v>0.80610999999999999</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45">
+        <v>1.6320600000000001</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49">
+        <v>5.0650000000000001E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50">
+        <v>0.24623</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51">
+        <v>0.49886000000000003</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1 Hardware/MCP33151 Eval Board Bringup/Power Rails/Board Bringup Measurements.xlsx
+++ b/1 Hardware/MCP33151 Eval Board Bringup/Power Rails/Board Bringup Measurements.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\Desktop\ecse478_honours_thesis\1 Hardware\MCP33151 Eval Board Bringup\Power Rails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A7A1C5-3FE2-4088-B029-F5B0B69A9D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8184E-9125-49F8-AEBB-B9BAAB33CD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="3" xr2:uid="{7F6D996F-7E04-4D92-871E-4D697BCB5885}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="3" xr2:uid="{7F6D996F-7E04-4D92-871E-4D697BCB5885}"/>
   </bookViews>
   <sheets>
     <sheet name="Power rails" sheetId="1" r:id="rId1"/>
     <sheet name="LS SE Gains" sheetId="2" r:id="rId2"/>
     <sheet name="LS SE Input Pulldown" sheetId="4" r:id="rId3"/>
     <sheet name="AA filter input bias offset" sheetId="5" r:id="rId4"/>
-    <sheet name="AA filter offset vs freq" sheetId="6" r:id="rId5"/>
-    <sheet name="HS DE Stuff" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="AA filter offset vs freq" sheetId="6" r:id="rId6"/>
+    <sheet name="AA filter mag resp LTspice" sheetId="7" r:id="rId7"/>
+    <sheet name="HS DE Stuff" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="167">
   <si>
     <t>Measurements</t>
   </si>
@@ -448,16 +450,146 @@
   </si>
   <si>
     <t>units</t>
+  </si>
+  <si>
+    <t>Mag (dB)</t>
+  </si>
+  <si>
+    <t>Freq (Hz)</t>
+  </si>
+  <si>
+    <t>Testing on op amp only board, measurements with FLIR DM92 multimeter in mV mode</t>
+  </si>
+  <si>
+    <t>No compensation resistors (no rework), powered by +/-12V from SPD3303x-e supply in slave mode, unity gain configuration by shorting mux</t>
+  </si>
+  <si>
+    <t>2.5V input to AA filter, unity gain</t>
+  </si>
+  <si>
+    <t>GNDed input to AA filter (at in-amp output test point), unity gain</t>
+  </si>
+  <si>
+    <t>3.3V input, unity gain</t>
+  </si>
+  <si>
+    <t>RC4580 op amp</t>
+  </si>
+  <si>
+    <t>TLV2172 op amp</t>
+  </si>
+  <si>
+    <t>same conditions as for RC4580 testing</t>
+  </si>
+  <si>
+    <t>sad forgot to check vout of third stage which is different from final vout (output of gain stage)</t>
+  </si>
+  <si>
+    <t>multimeter in V mode</t>
+  </si>
+  <si>
+    <t>TLV2172 op amp with compensation resistors in feedback loop</t>
+  </si>
+  <si>
+    <t>TLV2172 op amp with reworks but 0 ohm resistors</t>
+  </si>
+  <si>
+    <t>Final Vout - Vin (mV)</t>
+  </si>
+  <si>
+    <t>Filter Vin</t>
+  </si>
+  <si>
+    <t>First Stage Vout</t>
+  </si>
+  <si>
+    <t>Second Stage Vout</t>
+  </si>
+  <si>
+    <t>Final Vout</t>
+  </si>
+  <si>
+    <t>RC4580 op amp with compensation (on first soldered board)</t>
+  </si>
+  <si>
+    <t>Vout_final (V)</t>
+  </si>
+  <si>
+    <t>Vout_ina (V)</t>
+  </si>
+  <si>
+    <t>Vin- (V)</t>
+  </si>
+  <si>
+    <t>Vin+ (V)</t>
+  </si>
+  <si>
+    <t>RC4580 with compensation, check vout vs vin</t>
+  </si>
+  <si>
+    <t>Unity gain</t>
+  </si>
+  <si>
+    <t>10x gain</t>
+  </si>
+  <si>
+    <t>50x gain</t>
+  </si>
+  <si>
+    <t>100x gain</t>
+  </si>
+  <si>
+    <t>probably clamped</t>
+  </si>
+  <si>
+    <t>Manual calculations of gain and offset</t>
+  </si>
+  <si>
+    <t>1x gain</t>
+  </si>
+  <si>
+    <t>gain (V/V)</t>
+  </si>
+  <si>
+    <t>offset (V)</t>
+  </si>
+  <si>
+    <t>x1 (V)</t>
+  </si>
+  <si>
+    <t>y1 (V)</t>
+  </si>
+  <si>
+    <t>x2 (V)</t>
+  </si>
+  <si>
+    <t>y2 (V)</t>
+  </si>
+  <si>
+    <t>trend gain (V/V)</t>
+  </si>
+  <si>
+    <t>trend offset (V)</t>
+  </si>
+  <si>
+    <t>1x, 10x gains are within tolerance</t>
+  </si>
+  <si>
+    <t>50x, 100x gains are slightly outside, probably due to imprecise multimeter measurements.</t>
+  </si>
+  <si>
+    <t>should redo with averaging of e.g. 10000 samples over 2 sec, use labjack?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -489,7 +621,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,8 +640,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -554,11 +692,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -583,9 +820,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,6 +857,1916 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vout_final (V) -- 10x gain</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AA filter input bias offset'!$E$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vout_final (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25213980885977039"/>
+                  <c:y val="6.4398148148148149E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-CA" sz="1400" baseline="0"/>
+                      <a:t>y = 10.108x - 0.0489</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-CA" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AA filter input bias offset'!$D$105:$D$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AA filter input bias offset'!$E$105:$E$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-3.6299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4723999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4792999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9834999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4980000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B44C-4FC5-86F4-A21D39A85382}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1247142592"/>
+        <c:axId val="1247143424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1247142592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247143424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1247143424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247142592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vout_final (V) -- 1x gain</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AA filter input bias offset'!$E$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vout_final (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23820062795888827"/>
+                  <c:y val="6.9027777777777771E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 1.0164x - 0.0239</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AA filter input bias offset'!$D$90:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AA filter input bias offset'!$E$90:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-2.4199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.81E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4972000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0041000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0182000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5389999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B297-4358-BD69-159D78F39483}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1246953792"/>
+        <c:axId val="1246954624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1246953792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246954624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1246954624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246953792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vout_final (V) -- 50x gain</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AA filter input bias offset'!$E$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vout_final (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16588932633420822"/>
+                  <c:y val="-1.9783464566929133E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = 49.632x - 0.2221</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AA filter input bias offset'!$D$120:$D$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.08E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0900000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10050000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AA filter input bias offset'!$E$120:$E$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-0.15989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2836000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7894000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2924000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7955999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2993000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7745000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7729999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7378-4BEF-93EA-CE3E1984F79B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1068424176"/>
+        <c:axId val="1068423344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1068424176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068423344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1068423344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068424176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vout_final (V) -- 100x gain</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AA filter input bias offset'!$E$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vout_final (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.20899256342957132"/>
+                  <c:y val="8.8425925925925929E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-CA" sz="1400" baseline="0"/>
+                      <a:t>y = 101.85x - 0.5254</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-CA" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AA filter input bias offset'!$D$133:$D$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.07E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.11E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AA filter input bias offset'!$E$133:$E$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-0.39789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5952999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6301000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6528999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6689999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4B6-4692-8F38-AE4921F0D446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1362430576"/>
+        <c:axId val="1362429328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1362430576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362429328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1362429328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362430576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1032,7 +3195,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1541,6 +3704,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2058,6 +4381,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2640,6 +7027,155 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B30B26-C33E-87EF-9373-718E28B6801B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9968CAB-261D-B0D5-844F-70508850DF9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>187960</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236C10BA-44F4-6B6F-6263-44A87B259C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>154172</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>129067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>260793</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>81220</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C46D6B5-69D3-4E3B-2E73-05134C11E296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3967,17 +8503,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507666E9-2125-403F-A1F7-D59C50427D35}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="D127" zoomScale="126" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="54.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
     <col min="10" max="10" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4795,7 +9337,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -4806,7 +9348,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>117</v>
       </c>
@@ -4817,7 +9359,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -4828,43 +9370,1396 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C64">
+        <v>13.11</v>
+      </c>
+      <c r="D64">
+        <v>23.49</v>
+      </c>
+      <c r="E64">
+        <v>29.952999999999999</v>
+      </c>
+      <c r="F64" s="21">
+        <f>E64-B64</f>
+        <v>29.939999999999998</v>
+      </c>
+      <c r="G64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65">
+        <v>2.5263</v>
+      </c>
+      <c r="C65">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="D65">
+        <v>2.5491000000000001</v>
+      </c>
+      <c r="E65">
+        <v>2.5554999999999999</v>
+      </c>
+      <c r="F65" s="21">
+        <f>(E65-B65)*1000</f>
+        <v>29.199999999999893</v>
+      </c>
+      <c r="G65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66">
+        <v>3.3163999999999998</v>
+      </c>
+      <c r="C66">
+        <v>3.3290000000000002</v>
+      </c>
+      <c r="D66">
+        <v>3.339</v>
+      </c>
+      <c r="E66">
+        <v>3.3452999999999999</v>
+      </c>
+      <c r="F66" s="21">
+        <f>(E66-B66)*1000</f>
+        <v>28.900000000000148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="C69">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D69">
+        <v>0.43</v>
+      </c>
+      <c r="E69">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F69" s="21">
+        <f t="shared" ref="F69:F74" si="0">E69-B69</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70">
+        <v>2.5264000000000002</v>
+      </c>
+      <c r="C70">
+        <v>2.5268000000000002</v>
+      </c>
+      <c r="D70">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="E70">
+        <v>2.5266000000000002</v>
+      </c>
+      <c r="F70" s="21">
+        <f>(E70-B70)*1000</f>
+        <v>0.19999999999997797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71">
+        <v>3.3165</v>
+      </c>
+      <c r="C71">
+        <v>3.3169</v>
+      </c>
+      <c r="D71">
+        <v>3.3170000000000002</v>
+      </c>
+      <c r="E71">
+        <v>3.3168000000000002</v>
+      </c>
+      <c r="F71" s="21">
+        <f>(E71-B71)*1000</f>
+        <v>0.300000000000189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F72" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74">
+        <v>1E-3</v>
+      </c>
+      <c r="C74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D74">
+        <v>0.436</v>
+      </c>
+      <c r="E74">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F74" s="21">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75">
+        <v>2.5268000000000002</v>
+      </c>
+      <c r="C75">
+        <v>2.5270999999999999</v>
+      </c>
+      <c r="D75">
+        <v>2.5274000000000001</v>
+      </c>
+      <c r="E75">
+        <v>2.5270999999999999</v>
+      </c>
+      <c r="F75" s="21">
+        <f>(E75-B75)*1000</f>
+        <v>0.29999999999974492</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76">
+        <v>3.3170999999999999</v>
+      </c>
+      <c r="C76">
+        <v>3.3174000000000001</v>
+      </c>
+      <c r="D76">
+        <v>3.3176000000000001</v>
+      </c>
+      <c r="E76" s="19">
+        <v>3.3172999999999999</v>
+      </c>
+      <c r="F76" s="21">
+        <f>(E76-B76)*1000</f>
+        <v>0.19999999999997797</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79">
+        <v>2E-3</v>
+      </c>
+      <c r="C79">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D79">
+        <v>0.436</v>
+      </c>
+      <c r="E79">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F79" s="21">
+        <f t="shared" ref="F79" si="1">E79-B79</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="C80">
+        <v>2.5272999999999999</v>
+      </c>
+      <c r="D80">
+        <v>2.5274000000000001</v>
+      </c>
+      <c r="E80">
+        <v>2.5270999999999999</v>
+      </c>
+      <c r="F80" s="21">
+        <f>(E80-B80)*1000</f>
+        <v>9.9999999999766942E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81">
+        <v>3.3170999999999999</v>
+      </c>
+      <c r="C81">
+        <v>3.3174000000000001</v>
+      </c>
+      <c r="D81">
+        <v>3.3176000000000001</v>
+      </c>
+      <c r="E81" s="19">
+        <v>3.3172999999999999</v>
+      </c>
+      <c r="F81" s="22">
+        <f>(E81-B81)*1000</f>
+        <v>0.19999999999997797</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="C84">
+        <v>-97.5</v>
+      </c>
+      <c r="D84">
+        <v>-86.69</v>
+      </c>
+      <c r="E84">
+        <v>-27.21</v>
+      </c>
+      <c r="F84" s="21">
+        <f t="shared" ref="F84" si="2">E84-B84</f>
+        <v>-27.507999999999999</v>
+      </c>
+      <c r="G84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="C85">
+        <v>2.5272999999999999</v>
+      </c>
+      <c r="D85">
+        <v>2.5274000000000001</v>
+      </c>
+      <c r="E85">
+        <v>2.5270999999999999</v>
+      </c>
+      <c r="F85" s="21">
+        <f>(E85-B85)*1000</f>
+        <v>9.9999999999766942E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86">
+        <v>3.3170999999999999</v>
+      </c>
+      <c r="C86">
+        <v>3.3174000000000001</v>
+      </c>
+      <c r="D86">
+        <v>3.3176000000000001</v>
+      </c>
+      <c r="E86" s="19">
+        <v>3.3172999999999999</v>
+      </c>
+      <c r="F86" s="22">
+        <f>(E86-B86)*1000</f>
+        <v>0.19999999999997797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D90">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E90">
+        <v>-2.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="D91">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E91">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D92">
+        <v>0.1008</v>
+      </c>
+      <c r="E92">
+        <v>7.8899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="D93">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="E93">
+        <v>0.12939999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="D94">
+        <v>0.25</v>
+      </c>
+      <c r="E94">
+        <v>0.2303</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C95" s="4">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="E95">
+        <v>0.48420000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C96" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="D96">
+        <v>0.749</v>
+      </c>
+      <c r="E96">
+        <v>0.73760000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C97" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D97">
+        <v>0.998</v>
+      </c>
+      <c r="E97">
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C98" s="4">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>1.496</v>
+      </c>
+      <c r="E98">
+        <v>1.4972000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C99" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D99">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="E99">
+        <v>2.0041000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C100" s="4">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>2.4940000000000002</v>
+      </c>
+      <c r="E100">
+        <v>2.5106999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C101" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D101">
+        <v>2.992</v>
+      </c>
+      <c r="E101">
+        <v>3.0182000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C102" s="4">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>4.49</v>
+      </c>
+      <c r="E102">
+        <v>4.5389999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D105">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E105">
+        <v>-3.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="D106">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E106">
+        <v>5.6599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="D107">
+        <v>2.06E-2</v>
+      </c>
+      <c r="E107">
+        <v>0.15809999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C108" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="D108">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="E108">
+        <v>0.26140000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C109" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="D109">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="E109">
+        <v>0.36280000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B110" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C110" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="D110">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="E110">
+        <v>0.46560000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D111">
+        <v>0.1008</v>
+      </c>
+      <c r="E111">
+        <v>0.96970000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C112" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="D112">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="E112">
+        <v>1.4723999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B113" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C113" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="D113">
+        <v>0.2006</v>
+      </c>
+      <c r="E113">
+        <v>1.9802</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B114" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="D114">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="E114">
+        <v>2.4792999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D115">
+        <v>0.29980000000000001</v>
+      </c>
+      <c r="E115">
+        <v>2.9834999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B116" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C116" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="D116">
+        <v>0.4002</v>
+      </c>
+      <c r="E116">
+        <v>3.9981</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B117" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C117" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="D117">
+        <v>0.4501</v>
+      </c>
+      <c r="E117">
+        <v>4.4980000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>151</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C120" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D120">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E120">
+        <v>-0.15989999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C121" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="D121">
+        <v>1.01E-2</v>
+      </c>
+      <c r="E121">
+        <v>0.26960000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B122" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="D122">
+        <v>2.01E-2</v>
+      </c>
+      <c r="E122">
+        <v>0.76949999999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B123" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C123" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="D123">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="E123">
+        <v>1.2836000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B124" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C124" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="D124">
+        <v>4.07E-2</v>
+      </c>
+      <c r="E124">
+        <v>1.7894000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B125" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C125" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="D125">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="E125">
+        <v>2.2924000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B126" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C126" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="D126">
+        <v>6.08E-2</v>
+      </c>
+      <c r="E126">
+        <v>2.7955999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B127" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C127" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="D127">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="E127">
+        <v>3.2993000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B128" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C128" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="D128">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="E128">
+        <v>3.7745000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C129" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="D129">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="E129">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C130" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D130">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="E130">
+        <v>4.7729999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C133" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D133">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E133">
+        <v>-0.39789999999999998</v>
+      </c>
+      <c r="G133" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C134" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="D134">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E134">
+        <v>0.55640000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="D135">
+        <v>2.07E-2</v>
+      </c>
+      <c r="E135">
+        <v>1.5952999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="D136">
+        <v>3.09E-2</v>
+      </c>
+      <c r="E136">
+        <v>2.6301000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C137" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="D137">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E137">
+        <v>3.6528999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C138" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="D138">
+        <v>5.11E-2</v>
+      </c>
+      <c r="E138">
+        <v>4.6689999999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G142" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H142" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="I142" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C143">
+        <v>-2.4199999999999999E-2</v>
+      </c>
+      <c r="D143">
+        <v>4.49</v>
+      </c>
+      <c r="E143">
+        <v>4.5389999999999997</v>
+      </c>
+      <c r="F143" s="27">
+        <f>(E143-C143)/(D143-B143)</f>
+        <v>1.0165519392278732</v>
+      </c>
+      <c r="G143" s="28">
+        <f>E143-F143*D143</f>
+        <v>-2.5318207133151027E-2</v>
+      </c>
+      <c r="H143" s="31">
+        <v>1.0164</v>
+      </c>
+      <c r="I143" s="32">
+        <v>-2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C144">
+        <v>-3.6299999999999999E-2</v>
+      </c>
+      <c r="D144">
+        <v>0.4501</v>
+      </c>
+      <c r="E144">
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="F144" s="27">
+        <f t="shared" ref="F144:F146" si="3">(E144-C144)/(D144-B144)</f>
+        <v>10.098663697104676</v>
+      </c>
+      <c r="G144" s="28">
+        <f t="shared" ref="G144:G146" si="4">E144-F144*D144</f>
+        <v>-4.7408530066814336E-2</v>
+      </c>
+      <c r="H144" s="31">
+        <v>10.108000000000001</v>
+      </c>
+      <c r="I144" s="32">
+        <v>-4.8899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C145">
+        <v>-0.15989999999999999</v>
+      </c>
+      <c r="D145">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="E145">
+        <v>4.7729999999999997</v>
+      </c>
+      <c r="F145" s="27">
+        <f t="shared" si="3"/>
+        <v>49.427855711422843</v>
+      </c>
+      <c r="G145" s="28">
+        <f t="shared" si="4"/>
+        <v>-0.19449949899799623</v>
+      </c>
+      <c r="H145" s="31">
+        <v>49.631999999999998</v>
+      </c>
+      <c r="I145" s="32">
+        <v>-0.22209999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C146">
+        <v>-0.39789999999999998</v>
+      </c>
+      <c r="D146">
+        <v>5.11E-2</v>
+      </c>
+      <c r="E146">
+        <v>4.6689999999999996</v>
+      </c>
+      <c r="F146" s="29">
+        <f t="shared" si="3"/>
+        <v>101.74497991967871</v>
+      </c>
+      <c r="G146" s="30">
+        <f t="shared" si="4"/>
+        <v>-0.53016847389558297</v>
+      </c>
+      <c r="H146" s="33">
+        <v>101.85</v>
+      </c>
+      <c r="I146" s="34">
+        <v>-5.2540000000000003E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F148" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F149" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F150" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4AAE69-F66D-47D9-AE72-6AA7483F1E6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B34CD3F-A7E3-43E4-A82F-302D6CA4F9B0}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4891,16 +10786,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -5657,7 +11552,203 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702F0F2C-0E6A-417E-96A1-D0B1DB4D2DA0}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2000</v>
+      </c>
+      <c r="B9">
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5000</v>
+      </c>
+      <c r="B10">
+        <v>-0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>-0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12000</v>
+      </c>
+      <c r="B12">
+        <v>-0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>15000</v>
+      </c>
+      <c r="B13">
+        <v>-0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20000</v>
+      </c>
+      <c r="B14">
+        <v>-1.556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>22000</v>
+      </c>
+      <c r="B15">
+        <v>-1.8779999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>25000</v>
+      </c>
+      <c r="B16">
+        <v>-2.4129999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>30000</v>
+      </c>
+      <c r="B17">
+        <v>-3.4670000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>50000</v>
+      </c>
+      <c r="B18">
+        <v>-10.199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>75000</v>
+      </c>
+      <c r="B19">
+        <v>-22.902999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>100000</v>
+      </c>
+      <c r="B20">
+        <v>-36.156999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>150000</v>
+      </c>
+      <c r="B21">
+        <v>-54.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>200000</v>
+      </c>
+      <c r="B22">
+        <v>-68.852000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF3D532-2378-4AD8-A17E-2E47D1602F97}">
   <dimension ref="A1"/>
   <sheetViews>
